--- a/data.xlsx
+++ b/data.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polem\Desktop\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E6539-66A9-4AB7-9EFA-AB1113323FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473EEE5-BAA1-4EA2-9D24-D6A6865A0C92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="6" xr2:uid="{2DCDF3B1-16C9-4FDC-9244-EBAB58D0AF5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" firstSheet="3" activeTab="4" xr2:uid="{2DCDF3B1-16C9-4FDC-9244-EBAB58D0AF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Places" sheetId="1" r:id="rId1"/>
     <sheet name="Employee" sheetId="3" r:id="rId2"/>
-    <sheet name="Unavailabilities" sheetId="8" r:id="rId3"/>
+    <sheet name="Job" sheetId="7" r:id="rId3"/>
     <sheet name="Shift" sheetId="4" r:id="rId4"/>
-    <sheet name="ShiftRequirement" sheetId="6" r:id="rId5"/>
-    <sheet name="Job" sheetId="7" r:id="rId6"/>
-    <sheet name="JobHierarchy" sheetId="9" r:id="rId7"/>
+    <sheet name="Unavailability" sheetId="8" r:id="rId5"/>
+    <sheet name="ShiftRequirement" sheetId="6" r:id="rId6"/>
+    <sheet name="Duty" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Hollenplatz</t>
   </si>
@@ -60,9 +60,6 @@
     <t>EndTime</t>
   </si>
   <si>
-    <t>Alexandre</t>
-  </si>
-  <si>
     <t>Khalfallah</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Sallah</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -102,15 +96,6 @@
     <t>comis</t>
   </si>
   <si>
-    <t>UnavailabilitiesID</t>
-  </si>
-  <si>
-    <t>JobHierarchyID</t>
-  </si>
-  <si>
-    <t>CanTakeJobID</t>
-  </si>
-  <si>
     <t>Alexandre2</t>
   </si>
   <si>
@@ -141,31 +126,43 @@
     <t>Tuesday</t>
   </si>
   <si>
+    <t>ALex5</t>
+  </si>
+  <si>
+    <t>Sebastiansplatz</t>
+  </si>
+  <si>
+    <t>PlaceID</t>
+  </si>
+  <si>
+    <t>FavoritePlaceID</t>
+  </si>
+  <si>
+    <t>Alexandree</t>
+  </si>
+  <si>
+    <t>Sallah4</t>
+  </si>
+  <si>
+    <t>ALex6</t>
+  </si>
+  <si>
+    <t>ALex7</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>ALex5</t>
-  </si>
-  <si>
-    <t>Sebastiansplatz</t>
-  </si>
-  <si>
-    <t>PlaceID</t>
-  </si>
-  <si>
-    <t>FavoritePlaceID</t>
+    <t>UnavailabilityID</t>
   </si>
 </sst>
 </file>
@@ -550,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -569,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -579,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E692FD-2350-4A45-9BC0-367DB52FBB9B}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -632,10 +629,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>80</v>
@@ -652,10 +649,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>80</v>
@@ -672,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>80</v>
@@ -692,10 +689,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>80</v>
@@ -712,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>80</v>
@@ -732,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>80</v>
@@ -752,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>80</v>
@@ -764,6 +761,66 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>2</v>
       </c>
     </row>
@@ -773,11 +830,597 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C759F487-905F-4800-B00C-CFF194077EC0}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E926F79-7FA2-4BEF-86FA-A9A79DE40468}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <f>E3-D3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="0">E4-D4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f>E6-D6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <f>E7-D7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="1">E8-D8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <f>E10-D10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f>E11-D11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="2">E12-D12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <f>E14-D14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <f>E15-D15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="3">E16-D16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA105291-8EDE-4188-9EFA-B0AB95B3E66A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,19 +1430,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -824,551 +1467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E926F79-7FA2-4BEF-86FA-A9A79DE40468}">
-  <dimension ref="A1:F25"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79B03ED-20D7-4F3A-8987-E884912FC8D8}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <f>E2-D2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <f>E3-D3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F13" si="0">E4-D4</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <f>E14-D14</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <f>E15-D15</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F25" si="1">E16-D16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>21</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>21</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>21</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79B03ED-20D7-4F3A-8987-E884912FC8D8}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,16 +1482,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
@@ -1451,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1501,69 +1605,291 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C759F487-905F-4800-B00C-CFF194077EC0}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,56 +1898,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7AC7A8-18BC-4856-BEEB-2519B5839F47}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B75519-122C-4C2F-AB8D-9DE7C8E279E3}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
